--- a/Output/Results_Growth/sig_points.xlsx
+++ b/Output/Results_Growth/sig_points.xlsx
@@ -674,7 +674,7 @@
         <v>56</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
